--- a/ghgtools_AssetPortfolio_V1.xlsx
+++ b/ghgtools_AssetPortfolio_V1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brand\OneDrive\Documents\GitHub\ghgtools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brand\OneDrive\Documents\GitHub\ghgtools-website\content\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B31E9D-5EBC-4E78-9030-7AD35E11415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30081A86-C8D8-4CBC-9EB2-3ECECF6294A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
